--- a/res/testcase/preferential/sell.xlsx
+++ b/res/testcase/preferential/sell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="2"/>
+    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -434,10 +434,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -467,7 +467,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,7 +475,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,6 +491,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -512,70 +519,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -595,10 +540,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -609,6 +585,30 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -625,187 +625,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,60 +834,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -903,7 +849,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -926,8 +872,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,145 +939,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1801,8 +1801,8 @@
   <sheetPr/>
   <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2122,8 +2122,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/res/testcase/preferential/sell.xlsx
+++ b/res/testcase/preferential/sell.xlsx
@@ -4,19 +4,28 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10950" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
     <sheet name="001_addSellTicket" sheetId="2" r:id="rId2"/>
     <sheet name="002_returnVoucher" sheetId="3" r:id="rId3"/>
+    <sheet name="003_batchSellTicket" sheetId="4" r:id="rId4"/>
+    <sheet name="004_exportTicketPage" sheetId="5" r:id="rId5"/>
+    <sheet name="005_exportBusinessTicketCode" sheetId="6" r:id="rId6"/>
+    <sheet name="006_batchReturnVoucher" sheetId="7" r:id="rId7"/>
+    <sheet name="007_exportSellRecord" sheetId="8" r:id="rId8"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284">
   <si>
     <t>动作</t>
   </si>
@@ -246,6 +255,15 @@
     <t>勾选checkbox的元素， 参数value,ON,OFF(ON为勾选，OFF取消勾选)</t>
   </si>
   <si>
+    <t>发放商家劵</t>
+  </si>
+  <si>
+    <t>创建车牌</t>
+  </si>
+  <si>
+    <t>模拟进出场</t>
+  </si>
+  <si>
     <t>序号</t>
   </si>
   <si>
@@ -261,19 +279,250 @@
     <t>1</t>
   </si>
   <si>
+    <t>VoucherPage.优惠管理</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>点击优惠管理</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>点击卷管理</t>
+  </si>
+  <si>
+    <t>VoucherPage.券管理</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>截图</t>
+  </si>
+  <si>
+    <t>1卷管理界面</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>添加优惠</t>
+  </si>
+  <si>
+    <t>VoucherPage.添加优惠</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>创建劵名称</t>
+  </si>
+  <si>
+    <t>创建月票号</t>
+  </si>
+  <si>
+    <t>劵名称</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>输入券名称</t>
+  </si>
+  <si>
+    <t>VoucherPage.券名称</t>
+  </si>
+  <si>
+    <t>${001_addSellTicket}.劵名称</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>选择停车场列表</t>
+  </si>
+  <si>
+    <t>VoucherPage.停车场列表</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>输入选择停车场</t>
+  </si>
+  <si>
+    <t>VoucherPage.选择停车场</t>
+  </si>
+  <si>
+    <t>自动化测试停车场;on</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>点击确认</t>
+  </si>
+  <si>
+    <t>VoucherPage.确认-二级提示</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>输入使用有效时间(分钟)</t>
+  </si>
+  <si>
+    <t>VoucherPage.使用有效时间</t>
+  </si>
+  <si>
+    <t>1440</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>输入原价</t>
+  </si>
+  <si>
+    <t>VoucherPage.原价</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>输入折扣价</t>
+  </si>
+  <si>
+    <t>VoucherPage.折扣价</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>输入登录密码</t>
+  </si>
+  <si>
+    <t>VoucherPage.总数</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>输入确认密码</t>
+  </si>
+  <si>
+    <t>VoucherPage.描述</t>
+  </si>
+  <si>
+    <t>艾科技</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>2新增劵管理</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>点击确定</t>
+  </si>
+  <si>
+    <t>VoucherPage.确定-提示</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>操作成功</t>
+  </si>
+  <si>
+    <t>VoucherPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>创建成功</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>3保存后截图</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>输入搜索框</t>
+  </si>
+  <si>
+    <t>VoucherPage.搜索框</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>VoucherPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>4查询界面</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>点击启用</t>
+  </si>
+  <si>
+    <t>VoucherPage.启用</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>VoucherPage.确认-提示</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>5操作成功</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
     <t>SellPage.优惠管理</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>点击优惠管理</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
   </si>
   <si>
     <t>点击售买管理</t>
@@ -282,151 +531,352 @@
     <t>SellPage.售买管理</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>截图</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>6售买管理界面</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>添加销售商家券</t>
+  </si>
+  <si>
+    <t>SellPage.销售商家券</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>输入商家券名称</t>
+  </si>
+  <si>
+    <t>SellPage.商家券名称</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>点击商户名称</t>
+  </si>
+  <si>
+    <t>SellPage.商户名称</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>输入商家名称搜索</t>
+  </si>
+  <si>
+    <t>SellPage.商户选择-搜索框</t>
+  </si>
+  <si>
+    <t>UI自动化测试勿用</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>点击商户选择-搜索按钮</t>
+  </si>
+  <si>
+    <t>SellPage.商户选择-搜索按钮</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>点击商户选择</t>
+  </si>
+  <si>
+    <t>SellPage.商户选择</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>输入购买数量</t>
+  </si>
+  <si>
+    <t>SellPage.购买数量</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>输入商家折扣价</t>
+  </si>
+  <si>
+    <t>SellPage.商家折扣价</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>输入描述</t>
+  </si>
+  <si>
+    <t>SellPage.描述</t>
+  </si>
+  <si>
+    <t>艾科智泊</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>7售卖管理界面</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>SellPage.确认-提示</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>SellPage.操作成功-提示</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>8操作成功</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>车牌号</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>模拟进场</t>
+  </si>
+  <si>
+    <t>${001_addSellTicket}.车牌号;0</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>暂停3秒</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>${001_addSellTicket}.车牌号</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>模拟出场</t>
+  </si>
+  <si>
+    <t>${001_addSellTicket}.车牌号;1</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>waterInformationPage.优惠管理</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>点击流水记录</t>
+  </si>
+  <si>
+    <t>waterInformationPage.流水记录</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>点击商家劵使用流水</t>
+  </si>
+  <si>
+    <t>waterInformationPage.商家劵使用流水</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>暂停5秒</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>9商家劵使用流水界面</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>选择搜索项</t>
+  </si>
+  <si>
+    <t>waterInformationPage.选择搜索项</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>输入车牌号</t>
+  </si>
+  <si>
+    <t>waterInformationPage.车牌号</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>waterInformationPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>waterInformationPage.记录列表</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>10商家劵使用流水搜索界面</t>
   </si>
   <si>
     <t>1售买管理界面</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>添加销售商家券</t>
-  </si>
-  <si>
-    <t>SellPage.销售商家券</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>输入商家券名称</t>
-  </si>
-  <si>
-    <t>SellPage.商家券名称</t>
-  </si>
-  <si>
-    <t>UI自动化测试勿用</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>点击商户名称</t>
-  </si>
-  <si>
-    <t>SellPage.商户名称</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>输入商家名称搜索</t>
-  </si>
-  <si>
-    <t>SellPage.商户选择-搜索框</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>点击商户选择-搜索按钮</t>
-  </si>
-  <si>
-    <t>SellPage.商户选择-搜索按钮</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>点击商户选择</t>
-  </si>
-  <si>
-    <t>SellPage.商户选择</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>输入购买数量</t>
-  </si>
-  <si>
-    <t>SellPage.购买数量</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>输入商家折扣价</t>
-  </si>
-  <si>
-    <t>SellPage.商家折扣价</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>输入描述</t>
-  </si>
-  <si>
-    <t>SellPage.描述</t>
-  </si>
-  <si>
-    <t>艾科智泊</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2新增支付优惠管理界面</t>
-  </si>
-  <si>
-    <t>点击确认</t>
-  </si>
-  <si>
-    <t>SellPage.确认-提示</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>SellPage.操作成功-提示</t>
-  </si>
-  <si>
-    <t>操作成功</t>
-  </si>
-  <si>
-    <t>17</t>
+    <t>选择商家券名称</t>
+  </si>
+  <si>
+    <t>SellPage.选择搜索项</t>
+  </si>
+  <si>
+    <t>商家券名称</t>
+  </si>
+  <si>
+    <t>SellPage.搜索框商家券名称</t>
+  </si>
+  <si>
+    <t>SellPage.搜索按钮</t>
+  </si>
+  <si>
+    <t>SellPage.售买列表首行</t>
+  </si>
+  <si>
+    <t>输入退款额</t>
+  </si>
+  <si>
+    <t>SellPage.退款额</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2现金退款界面</t>
   </si>
   <si>
     <t>3操作成功</t>
   </si>
   <si>
-    <t>输入搜索框</t>
-  </si>
-  <si>
-    <t>SellPage.搜索框</t>
-  </si>
-  <si>
-    <t>SellPage.搜索按钮</t>
-  </si>
-  <si>
-    <t>SellPage.售买列表首行</t>
-  </si>
-  <si>
-    <t>输入退款额</t>
-  </si>
-  <si>
-    <t>SellPage.退款额</t>
-  </si>
-  <si>
-    <t>9.9</t>
-  </si>
-  <si>
-    <t>2现金退款界面</t>
+    <t>点击批量销售</t>
+  </si>
+  <si>
+    <t>SellPage.批量销售</t>
+  </si>
+  <si>
+    <t>输入文件名</t>
+  </si>
+  <si>
+    <t>SellPage.选择文件</t>
+  </si>
+  <si>
+    <t>G:\upload\import_sell_bill.xls</t>
+  </si>
+  <si>
+    <t>SellPage.导入显示框</t>
+  </si>
+  <si>
+    <t>全部成功(提示保留一天)</t>
+  </si>
+  <si>
+    <t>2导入界面</t>
+  </si>
+  <si>
+    <t>点击关闭</t>
+  </si>
+  <si>
+    <t>SellPage.关闭-提示</t>
+  </si>
+  <si>
+    <t>勾选导出的纸质卷</t>
+  </si>
+  <si>
+    <t>SellPage.售卖管理列表</t>
+  </si>
+  <si>
+    <t>UI导入商家勿动</t>
+  </si>
+  <si>
+    <t>点击导出纸质券</t>
+  </si>
+  <si>
+    <t>SellPage.导出纸质券</t>
+  </si>
+  <si>
+    <t>2导出纸质卷界面</t>
+  </si>
+  <si>
+    <t>导出成功，正在为您下载..</t>
+  </si>
+  <si>
+    <t>3导出纸质卷成功界面</t>
+  </si>
+  <si>
+    <t>勾选导出的记录</t>
+  </si>
+  <si>
+    <t>点击导出售卖记录</t>
+  </si>
+  <si>
+    <t>SellPage.导出售卖记录</t>
+  </si>
+  <si>
+    <t>2导出售卖记录界面</t>
+  </si>
+  <si>
+    <t>操作成功，请打开右上角下载中心界面进行下载</t>
+  </si>
+  <si>
+    <t>3导出售卖记录成功界面</t>
+  </si>
+  <si>
+    <t>点击导批量退款</t>
+  </si>
+  <si>
+    <t>SellPage.批量退款</t>
+  </si>
+  <si>
+    <t>2批量退款界面</t>
+  </si>
+  <si>
+    <t>3批量退款成功界面</t>
+  </si>
+  <si>
+    <t>3成功界面</t>
   </si>
 </sst>
 </file>
@@ -434,10 +884,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -455,19 +905,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,7 +925,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -491,13 +941,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -519,8 +962,70 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -540,29 +1045,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -571,40 +1053,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,31 +1075,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,7 +1087,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -679,6 +1123,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -691,19 +1195,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,37 +1225,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,13 +1237,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -787,25 +1249,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,6 +1284,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -849,7 +1353,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,62 +1376,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,10 +1389,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -951,137 +1401,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1097,14 +1547,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1172,6 +1625,48 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Actions"/>
+      <sheetName val="001_addVoucher"/>
+      <sheetName val="002_editVoucher"/>
+      <sheetName val="003_delVoucher"/>
+      <sheetName val="004_setStop"/>
+      <sheetName val="005_setStratup"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Actions"/>
+      <sheetName val="001_exportBusinessUserWaterNum"/>
+      <sheetName val="002_exportBusinessSendWaterNum"/>
+      <sheetName val="003_exportPayVoucherWaterNum"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1461,10 +1956,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1474,218 +1969,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
@@ -1753,7 +2248,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1761,7 +2256,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1769,7 +2264,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1777,7 +2272,7 @@
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1787,6 +2282,21 @@
       </c>
       <c r="B40" s="4" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1799,42 +2309,42 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="B9:E9"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="28.875" style="2" customWidth="1"/>
     <col min="3" max="3" width="20.375" style="2" customWidth="1"/>
     <col min="4" max="4" width="41" style="2" customWidth="1"/>
-    <col min="5" max="5" width="24.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="32" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -1843,272 +2353,943 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" ht="33" customHeight="1" spans="1:4">
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>90</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" ht="33" customHeight="1" spans="1:4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" ht="33" customHeight="1" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>96</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" ht="33" customHeight="1" spans="1:4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" ht="33" customHeight="1" spans="1:5">
+        <v>103</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" ht="33" customHeight="1" spans="1:4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" ht="33" customHeight="1" spans="1:4">
+        <v>58</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="12" ht="33" customHeight="1" spans="1:5">
+      <c r="D11" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>112</v>
+      <c r="D12" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" ht="33" customHeight="1" spans="1:5">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" ht="33" customHeight="1" spans="1:5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" s="5" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="C15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A17" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="16" ht="27" customHeight="1" spans="1:4">
-      <c r="A16" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" ht="27" customHeight="1" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D19" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" s="7" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" s="7" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A22" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A23" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E23" s="2"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="2"/>
+    </row>
+    <row r="26" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E26" s="2"/>
+    </row>
+    <row r="27" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A27" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="18" ht="27" customHeight="1" spans="1:5">
-      <c r="A18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A28" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>128</v>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A30" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A31" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A32" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A34" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A35" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A36" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A37" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A38" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A39" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A42" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A45" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="4"/>
+      <c r="E45" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" s="4"/>
+      <c r="E46" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A48" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A49" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="50" ht="27" customHeight="1" spans="1:5">
+      <c r="A50" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="55" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A56" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="57" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A57" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" s="7" customFormat="1" ht="35" customHeight="1" spans="1:5">
+      <c r="A58" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" ht="27" customHeight="1" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" ht="35" customHeight="1" spans="1:5">
+      <c r="A60" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C32:C1048576">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C75:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C13 C14 C15 C2:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C18 C19 C20 C21 C24 C25 C26 B27 C27 C28 C2:C4 C13:C14 C15:C16 C22:C23">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C29:C31">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16 B17 C17 C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43 B44 C44">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C20">
-      <formula1>Actions!$A$2:$A$35</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C46 C47 C48 C49 C50 C59 C61:C74">
+      <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21:C31">
-      <formula1>Actions!$A$2:$A$30</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51 C54 C55 C56 C58 C60 C52:C53">
+      <formula1>[2]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57">
+      <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2120,10 +3301,269 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="30" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A13" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" ht="26" customHeight="1" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C38:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C10 C2:C4 C8:C9">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C12 B13 C13 C14">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C15:C26">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C27:C37">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2138,24 +3578,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>16</v>
@@ -2164,197 +3604,1024 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>167</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>90</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>129</v>
+        <v>255</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>2</v>
+        <v>257</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>2</v>
+        <v>113</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>133</v>
+        <v>228</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>134</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>135</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>89</v>
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C36:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C9 C10 C12 C2:C4 C7:C8">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C24">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C25:C35">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="24.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C2:C4 C9:C10">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C11">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C23">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C34">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C2:C4 C9:C10">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C11">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C23">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C34">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="2" t="s">
+        <v>282</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C35:C1048576">
+      <formula1>Actions!$A$2:$A$27</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C2:C4 C9:C10">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8 C11">
+      <formula1>Actions!$A$2:$A$37</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C23">
+      <formula1>Actions!$A$2:$A$35</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C24:C34">
+      <formula1>Actions!$A$2:$A$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="22.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="18.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="30.25" style="2" customWidth="1"/>
+    <col min="5" max="5" width="45.125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A10" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="13" ht="26" customHeight="1" spans="1:5">
-      <c r="A13" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C37:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C34:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C9 C2:C4 C6:C8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C2:C4 C8:C9">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10 C11 B12 C12 C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7 C10">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11:C22">
       <formula1>Actions!$A$2:$A$35</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C26:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C23:C33">
       <formula1>Actions!$A$2:$A$30</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/testcase/preferential/sell.xlsx
+++ b/res/testcase/preferential/sell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="796" activeTab="1"/>
+    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="796" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287">
   <si>
     <t>动作</t>
   </si>
@@ -540,19 +540,19 @@
     <t>32</t>
   </si>
   <si>
-    <t>添加销售商家券</t>
-  </si>
-  <si>
-    <t>SellPage.销售商家券</t>
+    <t>添加销售优惠券</t>
+  </si>
+  <si>
+    <t>SellPage.销售优惠券</t>
   </si>
   <si>
     <t>33</t>
   </si>
   <si>
-    <t>输入商家券名称</t>
-  </si>
-  <si>
-    <t>SellPage.商家券名称</t>
+    <t>输入优惠券名称</t>
+  </si>
+  <si>
+    <t>SellPage.优惠券名称</t>
   </si>
   <si>
     <t>34</t>
@@ -765,10 +765,10 @@
     <t>SellPage.选择搜索项</t>
   </si>
   <si>
-    <t>商家券名称</t>
-  </si>
-  <si>
-    <t>SellPage.搜索框商家券名称</t>
+    <t>优惠券名称</t>
+  </si>
+  <si>
+    <t>SellPage.搜索框优惠券名称</t>
   </si>
   <si>
     <t>SellPage.搜索按钮</t>
@@ -852,6 +852,30 @@
     <t>点击导出售卖记录</t>
   </si>
   <si>
+    <t>SellPage.导出优惠券编码</t>
+  </si>
+  <si>
+    <t>2导出提示界面</t>
+  </si>
+  <si>
+    <t>导出成功</t>
+  </si>
+  <si>
+    <t>3导出成功界面</t>
+  </si>
+  <si>
+    <t>点击导批量退款</t>
+  </si>
+  <si>
+    <t>SellPage.批量退款</t>
+  </si>
+  <si>
+    <t>2批量退款界面</t>
+  </si>
+  <si>
+    <t>3批量退款成功界面</t>
+  </si>
+  <si>
     <t>SellPage.导出售卖记录</t>
   </si>
   <si>
@@ -859,21 +883,6 @@
   </si>
   <si>
     <t>操作成功，请打开右上角下载中心界面进行下载</t>
-  </si>
-  <si>
-    <t>3导出售卖记录成功界面</t>
-  </si>
-  <si>
-    <t>点击导批量退款</t>
-  </si>
-  <si>
-    <t>SellPage.批量退款</t>
-  </si>
-  <si>
-    <t>2批量退款界面</t>
-  </si>
-  <si>
-    <t>3批量退款成功界面</t>
   </si>
   <si>
     <t>3成功界面</t>
@@ -884,10 +893,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -923,24 +932,99 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,39 +1038,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1001,60 +1054,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,37 +1084,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1123,85 +1114,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1225,7 +1144,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1237,13 +1174,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,7 +1258,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1284,26 +1293,32 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,17 +1338,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1348,39 +1390,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1389,10 +1398,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1401,133 +1410,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2311,8 +2320,8 @@
   <sheetPr/>
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3082,7 +3091,7 @@
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3269,11 +3278,11 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C75:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C18 C19 C20 C21 C24 C25 C26 B27 C27 C28 C2:C4 C13:C14 C15:C16 C22:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C18 C19 C20 C21 C24 C25 C26 B27 C27 C28 C57 C2:C4 C13:C14 C15:C16 C22:C23">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C29:C31">
@@ -3288,9 +3297,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51 C54 C55 C56 C58 C60 C52:C53">
       <formula1>[2]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57">
-      <formula1>[1]Actions!#REF!</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3304,7 +3310,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3397,7 +3403,9 @@
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>244</v>
       </c>
@@ -3412,7 +3420,9 @@
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>147</v>
       </c>
@@ -3428,7 +3438,7 @@
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>2</v>
@@ -3443,7 +3453,7 @@
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>2</v>
@@ -3458,7 +3468,7 @@
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>250</v>
@@ -3475,7 +3485,7 @@
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>92</v>
@@ -3490,7 +3500,7 @@
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>113</v>
@@ -3505,7 +3515,7 @@
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>69</v>
@@ -3522,7 +3532,7 @@
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>92</v>
@@ -4007,8 +4017,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4438,7 +4448,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4541,7 +4551,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4557,7 +4567,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4589,7 +4599,7 @@
         <v>204</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4604,7 +4614,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/preferential/sell.xlsx
+++ b/res/testcase/preferential/sell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="796" firstSheet="1" activeTab="5"/>
+    <workbookView windowWidth="21495" windowHeight="10950" tabRatio="796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300">
   <si>
     <t>动作</t>
   </si>
@@ -360,7 +360,7 @@
     <t>VoucherPage.选择停车场</t>
   </si>
   <si>
-    <t>自动化测试停车场;on</t>
+    <t>$全局变量.停车场名称;on</t>
   </si>
   <si>
     <t>10</t>
@@ -375,6 +375,45 @@
     <t>11</t>
   </si>
   <si>
+    <t>点击支持停车场</t>
+  </si>
+  <si>
+    <t>VoucherPage.支持停车场</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>勾选checkbox入口</t>
+  </si>
+  <si>
+    <t>VoucherPage.选择支持停车场</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场入口;on</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>勾选checkbox出口</t>
+  </si>
+  <si>
+    <t>$全局变量.停车场出口;on</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>点击财务主体</t>
+  </si>
+  <si>
+    <t>VoucherPage.财务主体</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>输入使用有效时间(分钟)</t>
   </si>
   <si>
@@ -384,7 +423,7 @@
     <t>1440</t>
   </si>
   <si>
-    <t>12</t>
+    <t>17</t>
   </si>
   <si>
     <t>输入原价</t>
@@ -396,7 +435,7 @@
     <t>150</t>
   </si>
   <si>
-    <t>13</t>
+    <t>18</t>
   </si>
   <si>
     <t>输入折扣价</t>
@@ -408,10 +447,10 @@
     <t>100</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>输入登录密码</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>输入总数</t>
   </si>
   <si>
     <t>VoucherPage.总数</t>
@@ -420,7 +459,10 @@
     <t>500</t>
   </si>
   <si>
-    <t>输入确认密码</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>输入描述</t>
   </si>
   <si>
     <t>VoucherPage.描述</t>
@@ -429,13 +471,13 @@
     <t>艾科技</t>
   </si>
   <si>
-    <t>16</t>
+    <t>21</t>
   </si>
   <si>
     <t>2新增劵管理</t>
   </si>
   <si>
-    <t>17</t>
+    <t>22</t>
   </si>
   <si>
     <t>点击确定</t>
@@ -444,7 +486,7 @@
     <t>VoucherPage.确定-提示</t>
   </si>
   <si>
-    <t>18</t>
+    <t>23</t>
   </si>
   <si>
     <t>操作成功</t>
@@ -456,16 +498,16 @@
     <t>创建成功</t>
   </si>
   <si>
-    <t>19</t>
+    <t>24</t>
   </si>
   <si>
     <t>3保存后截图</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>输入搜索框</t>
@@ -474,7 +516,7 @@
     <t>VoucherPage.搜索框</t>
   </si>
   <si>
-    <t>22</t>
+    <t>27</t>
   </si>
   <si>
     <t>点击搜索按钮</t>
@@ -483,13 +525,13 @@
     <t>VoucherPage.搜索按钮</t>
   </si>
   <si>
-    <t>23</t>
+    <t>28</t>
   </si>
   <si>
     <t>4查询界面</t>
   </si>
   <si>
-    <t>24</t>
+    <t>29</t>
   </si>
   <si>
     <t>点击启用</t>
@@ -498,31 +540,31 @@
     <t>VoucherPage.启用</t>
   </si>
   <si>
-    <t>25</t>
+    <t>30</t>
   </si>
   <si>
     <t>VoucherPage.确认-提示</t>
   </si>
   <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
   </si>
   <si>
     <t>5操作成功</t>
   </si>
   <si>
-    <t>28</t>
+    <t>33</t>
   </si>
   <si>
     <t>SellPage.优惠管理</t>
   </si>
   <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
   </si>
   <si>
     <t>点击售买管理</t>
@@ -531,13 +573,13 @@
     <t>SellPage.售买管理</t>
   </si>
   <si>
-    <t>31</t>
+    <t>36</t>
   </si>
   <si>
     <t>6售买管理界面</t>
   </si>
   <si>
-    <t>32</t>
+    <t>37</t>
   </si>
   <si>
     <t>添加销售优惠券</t>
@@ -546,7 +588,7 @@
     <t>SellPage.销售优惠券</t>
   </si>
   <si>
-    <t>33</t>
+    <t>38</t>
   </si>
   <si>
     <t>输入优惠券名称</t>
@@ -555,7 +597,7 @@
     <t>SellPage.优惠券名称</t>
   </si>
   <si>
-    <t>34</t>
+    <t>39</t>
   </si>
   <si>
     <t>点击商户名称</t>
@@ -564,7 +606,7 @@
     <t>SellPage.商户名称</t>
   </si>
   <si>
-    <t>35</t>
+    <t>40</t>
   </si>
   <si>
     <t>输入商家名称搜索</t>
@@ -573,10 +615,10 @@
     <t>SellPage.商户选择-搜索框</t>
   </si>
   <si>
-    <t>UI自动化测试勿用</t>
-  </si>
-  <si>
-    <t>36</t>
+    <t>$售卖管理.商家名称</t>
+  </si>
+  <si>
+    <t>41</t>
   </si>
   <si>
     <t>点击商户选择-搜索按钮</t>
@@ -585,7 +627,7 @@
     <t>SellPage.商户选择-搜索按钮</t>
   </si>
   <si>
-    <t>37</t>
+    <t>42</t>
   </si>
   <si>
     <t>点击商户选择</t>
@@ -594,7 +636,7 @@
     <t>SellPage.商户选择</t>
   </si>
   <si>
-    <t>38</t>
+    <t>43</t>
   </si>
   <si>
     <t>输入购买数量</t>
@@ -603,7 +645,7 @@
     <t>SellPage.购买数量</t>
   </si>
   <si>
-    <t>39</t>
+    <t>44</t>
   </si>
   <si>
     <t>输入商家折扣价</t>
@@ -612,10 +654,7 @@
     <t>SellPage.商家折扣价</t>
   </si>
   <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>输入描述</t>
+    <t>45</t>
   </si>
   <si>
     <t>SellPage.描述</t>
@@ -624,37 +663,37 @@
     <t>艾科智泊</t>
   </si>
   <si>
-    <t>41</t>
+    <t>46</t>
   </si>
   <si>
     <t>7售卖管理界面</t>
   </si>
   <si>
-    <t>42</t>
+    <t>47</t>
   </si>
   <si>
     <t>SellPage.确认-提示</t>
   </si>
   <si>
-    <t>43</t>
+    <t>48</t>
   </si>
   <si>
     <t>SellPage.操作成功-提示</t>
   </si>
   <si>
-    <t>44</t>
+    <t>49</t>
   </si>
   <si>
     <t>8操作成功</t>
   </si>
   <si>
-    <t>45</t>
+    <t>50</t>
   </si>
   <si>
     <t>车牌号</t>
   </si>
   <si>
-    <t>46</t>
+    <t>51</t>
   </si>
   <si>
     <t>模拟进场</t>
@@ -663,19 +702,19 @@
     <t>${001_addSellTicket}.车牌号;0</t>
   </si>
   <si>
-    <t>47</t>
+    <t>52</t>
   </si>
   <si>
     <t>暂停3秒</t>
   </si>
   <si>
-    <t>48</t>
+    <t>53</t>
   </si>
   <si>
     <t>${001_addSellTicket}.车牌号</t>
   </si>
   <si>
-    <t>49</t>
+    <t>54</t>
   </si>
   <si>
     <t>模拟出场</t>
@@ -684,13 +723,13 @@
     <t>${001_addSellTicket}.车牌号;1</t>
   </si>
   <si>
-    <t>50</t>
+    <t>55</t>
   </si>
   <si>
     <t>waterInformationPage.优惠管理</t>
   </si>
   <si>
-    <t>51</t>
+    <t>56</t>
   </si>
   <si>
     <t>点击流水记录</t>
@@ -699,7 +738,7 @@
     <t>waterInformationPage.流水记录</t>
   </si>
   <si>
-    <t>52</t>
+    <t>57</t>
   </si>
   <si>
     <t>点击商家劵使用流水</t>
@@ -708,19 +747,19 @@
     <t>waterInformationPage.商家劵使用流水</t>
   </si>
   <si>
-    <t>53</t>
+    <t>58</t>
   </si>
   <si>
     <t>暂停5秒</t>
   </si>
   <si>
-    <t>54</t>
+    <t>59</t>
   </si>
   <si>
     <t>9商家劵使用流水界面</t>
   </si>
   <si>
-    <t>55</t>
+    <t>60</t>
   </si>
   <si>
     <t>选择搜索项</t>
@@ -729,7 +768,7 @@
     <t>waterInformationPage.选择搜索项</t>
   </si>
   <si>
-    <t>56</t>
+    <t>61</t>
   </si>
   <si>
     <t>输入车牌号</t>
@@ -738,19 +777,19 @@
     <t>waterInformationPage.车牌号</t>
   </si>
   <si>
-    <t>57</t>
+    <t>62</t>
   </si>
   <si>
     <t>waterInformationPage.搜索按钮</t>
   </si>
   <si>
-    <t>58</t>
+    <t>63</t>
   </si>
   <si>
     <t>waterInformationPage.记录列表</t>
   </si>
   <si>
-    <t>59</t>
+    <t>64</t>
   </si>
   <si>
     <t>10商家劵使用流水搜索界面</t>
@@ -893,10 +932,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -926,21 +965,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,37 +1032,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1000,39 +1055,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1054,16 +1077,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,19 +1123,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1114,13 +1177,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1144,7 +1225,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1174,97 +1267,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,6 +1332,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1304,6 +1363,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1323,21 +1415,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1352,44 +1429,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1398,145 +1437,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1686,7 +1725,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CBE9CE"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1968,7 +2007,7 @@
   <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2318,10 +2357,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2515,377 +2554,379 @@
         <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>118</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>130</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A16" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C16" s="2" t="s">
+    </row>
+    <row r="18" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" customFormat="1" ht="33" customHeight="1" spans="1:8">
-      <c r="A18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
     </row>
     <row r="19" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B19" s="2" t="s">
+    </row>
+    <row r="20" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A20" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="B20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" customFormat="1" ht="33" customHeight="1" spans="1:8">
+      <c r="A23" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A24" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" s="7" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="D24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" s="7" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" s="7" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="26" s="7" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A22" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A23" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A25" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
-      <c r="A26" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>158</v>
-      </c>
+      <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>69</v>
+        <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="2"/>
+    </row>
+    <row r="29" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A29" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="D29" s="4"/>
       <c r="E29" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="D30" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="E30" s="2"/>
+    </row>
+    <row r="31" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>166</v>
+        <v>113</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>172</v>
+      </c>
+      <c r="E31" s="2"/>
+    </row>
+    <row r="32" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E33" s="4"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="34" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>174</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E35" s="4"/>
     </row>
@@ -2897,324 +2938,324 @@
         <v>180</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A37" s="2" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="37" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A37" s="2" t="s">
+      <c r="B37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E37" s="4"/>
     </row>
     <row r="38" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A38" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>188</v>
       </c>
       <c r="E38" s="4"/>
     </row>
     <row r="39" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A39" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>191</v>
-      </c>
       <c r="E39" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A40" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>112</v>
-      </c>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A41" s="2" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A42" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="42" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A42" s="2" t="s">
+      <c r="C42" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A43" s="2" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="43" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A43" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>113</v>
-      </c>
       <c r="C43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="8" t="s">
         <v>202</v>
       </c>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" customFormat="1" ht="27" customHeight="1" spans="1:5">
+    <row r="44" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A44" s="2" t="s">
         <v>203</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>69</v>
+        <v>204</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>204</v>
+        <v>10</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>205</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" ht="27" customHeight="1" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A46" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="47" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A47" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C47" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D47" s="4"/>
+      <c r="D47" s="2"/>
       <c r="E47" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A48" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="2" t="s">
-        <v>94</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A49" s="2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>76</v>
+        <v>69</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="50" ht="27" customHeight="1" spans="1:5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>217</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A51" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" s="4"/>
+      <c r="E51" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" ht="27" customHeight="1" spans="1:5">
+      <c r="A52" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A52" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="D52" s="4"/>
+      <c r="E52" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A53" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="D53" s="4"/>
+      <c r="E53" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A54" s="2" t="s">
         <v>227</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="55" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    </row>
+    <row r="55" ht="27" customHeight="1" spans="1:5">
       <c r="A55" s="2" t="s">
         <v>229</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>92</v>
+        <v>230</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>78</v>
+      </c>
       <c r="E55" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="56" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>232</v>
+        <v>87</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="57" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A57" s="2" t="s">
         <v>234</v>
       </c>
@@ -3222,50 +3263,46 @@
         <v>235</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="58" s="7" customFormat="1" ht="35" customHeight="1" spans="1:5">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A58" s="2" t="s">
         <v>237</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>150</v>
+        <v>238</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" ht="27" customHeight="1" spans="1:5">
+    <row r="59" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>36</v>
+        <v>241</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="60" ht="35" customHeight="1" spans="1:5">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="60" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>92</v>
@@ -3273,28 +3310,109 @@
       <c r="C60" s="2" t="s">
         <v>53</v>
       </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A61" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="62" s="7" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A62" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" s="7" customFormat="1" ht="35" customHeight="1" spans="1:5">
+      <c r="A63" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" ht="27" customHeight="1" spans="1:5">
+      <c r="A64" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" ht="35" customHeight="1" spans="1:5">
+      <c r="A65" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C75:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C80:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C18 C19 C20 C21 C24 C25 C26 B27 C27 C28 C57 C2:C4 C13:C14 C15:C16 C22:C23">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C22 C23 C24 C25 C26 C29 C30 C31 B32 C32 C33 C62 C2:C4 C13:C16 C18:C19 C20:C21 C27:C28">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 C33 C34 C35 C36 C37 C38 C39 C40 C41 C42 C29:C31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C37 C38 C39 C40 C41 C42 C43 C44 C45 C46 C47 C34:C36">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C43 B44 C44">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C48 B49 C49">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C45 C46 C47 C48 C49 C50 C59 C61:C74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C50 C51 C52 C53 C54 C55 C64 C66:C79">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C51 C54 C55 C56 C58 C60 C52:C53">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56 C59 C60 C61 C63 C65 C57:C58">
       <formula1>[2]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -3310,7 +3428,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3351,7 +3469,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>85</v>
@@ -3368,7 +3486,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3377,13 +3495,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3399,7 +3517,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3407,16 +3525,16 @@
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3424,13 +3542,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>104</v>
@@ -3447,7 +3565,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3462,7 +3580,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3471,16 +3589,16 @@
         <v>108</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3495,7 +3613,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3509,13 +3627,13 @@
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>69</v>
@@ -3524,15 +3642,15 @@
         <v>69</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" ht="26" customHeight="1" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>92</v>
@@ -3541,7 +3659,7 @@
         <v>53</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3573,7 +3691,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3614,7 +3732,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>85</v>
@@ -3631,7 +3749,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3640,13 +3758,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3662,7 +3780,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3670,13 +3788,13 @@
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -3685,16 +3803,16 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3708,7 +3826,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3717,7 +3835,7 @@
         <v>105</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -3738,10 +3856,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3756,7 +3874,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3764,13 +3882,13 @@
         <v>115</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -3803,7 +3921,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3844,7 +3962,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>85</v>
@@ -3861,7 +3979,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -3870,13 +3988,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3892,7 +4010,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3900,16 +4018,16 @@
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3917,13 +4035,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3939,7 +4057,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3953,7 +4071,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -3968,10 +4086,10 @@
         <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3986,7 +4104,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4017,8 +4135,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4059,7 +4177,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>85</v>
@@ -4076,7 +4194,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4085,13 +4203,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4107,7 +4225,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4115,16 +4233,16 @@
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4132,13 +4250,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4154,7 +4272,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4168,7 +4286,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4183,10 +4301,10 @@
         <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4201,7 +4319,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4233,7 +4351,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4274,7 +4392,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>85</v>
@@ -4291,7 +4409,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4300,13 +4418,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4322,7 +4440,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4330,16 +4448,16 @@
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4347,13 +4465,13 @@
         <v>97</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4369,7 +4487,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4383,7 +4501,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4398,10 +4516,10 @@
         <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4416,7 +4534,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -4448,7 +4566,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4489,7 +4607,7 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>85</v>
@@ -4506,7 +4624,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -4515,13 +4633,13 @@
         <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4537,7 +4655,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4545,13 +4663,13 @@
         <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4567,7 +4685,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4581,7 +4699,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -4596,10 +4714,10 @@
         <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4614,7 +4732,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
